--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,12 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>killed</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -55,100 +55,106 @@
     <t>died</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>war</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
-    <t>war</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>anxiety</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>risk</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>happy</t>
@@ -160,163 +166,154 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>healthy</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>join</t>
+    <t>energy</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>increased</t>
+    <t>essential</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
-    <t>retail</t>
+    <t>store</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>store</t>
+    <t>stock</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -683,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -694,7 +691,7 @@
         <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -755,10 +752,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -776,13 +773,13 @@
         <v>42</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -794,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -805,10 +802,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -876,13 +873,13 @@
         <v>44</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -894,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -902,13 +899,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -920,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -944,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -952,13 +949,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7692307692307693</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -970,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -994,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1002,13 +999,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>0.7294520547945206</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1020,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K8">
-        <v>0.8536585365853658</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L8">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1044,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1052,13 +1049,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7294520547945206</v>
+        <v>0.72</v>
       </c>
       <c r="C9">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1070,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1094,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1102,13 +1099,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.72</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1120,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1144,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1152,13 +1149,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6896551724137931</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1176,13 +1173,13 @@
         <v>50</v>
       </c>
       <c r="K11">
-        <v>0.8275862068965517</v>
+        <v>0.828125</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1194,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1202,13 +1199,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6086956521739131</v>
+        <v>0.65</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1220,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K12">
-        <v>0.8169014084507042</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L12">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1244,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1252,13 +1249,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5263157894736842</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1270,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K13">
-        <v>0.796875</v>
+        <v>0.8</v>
       </c>
       <c r="L13">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M13">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1294,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1302,13 +1299,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1320,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K14">
-        <v>0.7894736842105263</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1344,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1352,13 +1349,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4838709677419355</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1370,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L15">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="M15">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1394,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1402,13 +1399,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4615384615384616</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1420,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K16">
-        <v>0.7446808510638298</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1444,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1452,13 +1449,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4333333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1470,19 +1467,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K17">
-        <v>0.74375</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L17">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1494,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1502,7 +1499,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4324324324324325</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -1520,19 +1517,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K18">
-        <v>0.7416666666666667</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L18">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="M18">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1544,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1552,13 +1549,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4193548387096774</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1570,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K19">
-        <v>0.7254901960784313</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1594,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1602,13 +1599,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4102564102564102</v>
+        <v>0.44</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1620,19 +1617,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K20">
-        <v>0.7169811320754716</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L20">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1644,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1652,13 +1649,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3783783783783784</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1670,19 +1667,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1694,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1702,13 +1699,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3758389261744967</v>
+        <v>0.3892617449664429</v>
       </c>
       <c r="C22">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D22">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1720,19 +1717,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K22">
-        <v>0.6702127659574468</v>
+        <v>0.70625</v>
       </c>
       <c r="L22">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="M22">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1744,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1752,13 +1749,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.36</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1770,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K23">
-        <v>0.6458333333333334</v>
+        <v>0.6875</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1794,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1802,13 +1799,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3546511627906977</v>
+        <v>0.3701550387596899</v>
       </c>
       <c r="C24">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D24">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1820,19 +1817,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K24">
-        <v>0.6449086161879896</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L24">
-        <v>247</v>
+        <v>63</v>
       </c>
       <c r="M24">
-        <v>247</v>
+        <v>63</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1844,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>136</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1852,13 +1849,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3333333333333333</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1870,19 +1867,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K25">
-        <v>0.6428571428571429</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1894,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1902,13 +1899,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3227513227513227</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C26">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1920,19 +1917,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K26">
-        <v>0.6388888888888888</v>
+        <v>0.6318537859007833</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>242</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>242</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1944,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1952,13 +1949,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3220338983050847</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1970,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>66</v>
@@ -2002,13 +1999,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2941176470588235</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2020,19 +2017,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K28">
-        <v>0.5955056179775281</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L28">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2044,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2052,13 +2049,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2909090909090909</v>
+        <v>0.2645502645502645</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2070,19 +2067,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K29">
-        <v>0.5823529411764706</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L29">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2094,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>142</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2102,13 +2099,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.288135593220339</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2120,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>69</v>
@@ -2152,13 +2149,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2857142857142857</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2170,19 +2167,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K31">
-        <v>0.5389830508474577</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L31">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2194,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>136</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2202,13 +2199,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.25</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2220,19 +2217,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K32">
-        <v>0.5116279069767442</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2244,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2252,13 +2249,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2023809523809524</v>
+        <v>0.2</v>
       </c>
       <c r="C33">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2270,19 +2267,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K33">
-        <v>0.5068493150684932</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2294,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2302,13 +2299,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1777777777777778</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2320,19 +2317,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.5288135593220339</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2344,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>17</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2352,37 +2349,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1129032258064516</v>
+        <v>0.1126005361930295</v>
       </c>
       <c r="C35">
         <v>42</v>
       </c>
       <c r="D35">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E35">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.525</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2394,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2402,13 +2399,13 @@
         <v>75</v>
       </c>
       <c r="K36">
-        <v>0.4937238493723849</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L36">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2420,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>121</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2428,13 +2425,13 @@
         <v>76</v>
       </c>
       <c r="K37">
-        <v>0.4814814814814815</v>
+        <v>0.4728033472803347</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2446,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2454,13 +2451,13 @@
         <v>77</v>
       </c>
       <c r="K38">
-        <v>0.475</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2472,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2480,13 +2477,13 @@
         <v>78</v>
       </c>
       <c r="K39">
-        <v>0.4666666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2498,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2506,13 +2503,13 @@
         <v>79</v>
       </c>
       <c r="K40">
-        <v>0.4487179487179487</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="L40">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2524,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2532,13 +2529,13 @@
         <v>80</v>
       </c>
       <c r="K41">
-        <v>0.421875</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L41">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2550,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2558,25 +2555,25 @@
         <v>81</v>
       </c>
       <c r="K42">
-        <v>0.4193548387096774</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2584,13 +2581,13 @@
         <v>82</v>
       </c>
       <c r="K43">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2602,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2610,13 +2607,13 @@
         <v>83</v>
       </c>
       <c r="K44">
-        <v>0.4</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L44">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2628,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2636,13 +2633,13 @@
         <v>84</v>
       </c>
       <c r="K45">
-        <v>0.3714285714285714</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L45">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M45">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2654,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2662,13 +2659,13 @@
         <v>85</v>
       </c>
       <c r="K46">
-        <v>0.3191489361702128</v>
+        <v>0.325</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2680,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2688,13 +2685,13 @@
         <v>86</v>
       </c>
       <c r="K47">
-        <v>0.2622950819672131</v>
+        <v>0.3</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2706,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2714,7 +2711,7 @@
         <v>87</v>
       </c>
       <c r="K48">
-        <v>0.2372881355932203</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="L48">
         <v>14</v>
@@ -2732,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2740,13 +2737,13 @@
         <v>88</v>
       </c>
       <c r="K49">
-        <v>0.1944444444444444</v>
+        <v>0.1259842519685039</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2758,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>58</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2766,22 +2763,22 @@
         <v>89</v>
       </c>
       <c r="K50">
-        <v>0.1297709923664122</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="L50">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M50">
         <v>17</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <v>114</v>
@@ -2792,13 +2789,13 @@
         <v>90</v>
       </c>
       <c r="K51">
-        <v>0.1129807692307692</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="L51">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M51">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2810,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2818,13 +2815,13 @@
         <v>91</v>
       </c>
       <c r="K52">
-        <v>0.1076555023923445</v>
+        <v>0.1009615384615385</v>
       </c>
       <c r="L52">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M52">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2836,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2844,25 +2841,25 @@
         <v>92</v>
       </c>
       <c r="K53">
-        <v>0.102803738317757</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="L53">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M53">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N53">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2870,25 +2867,25 @@
         <v>93</v>
       </c>
       <c r="K54">
-        <v>0.1012658227848101</v>
+        <v>0.06823266219239374</v>
       </c>
       <c r="L54">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="M54">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="N54">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>142</v>
+        <v>833</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2896,13 +2893,13 @@
         <v>94</v>
       </c>
       <c r="K55">
-        <v>0.08837209302325581</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2914,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2922,25 +2919,25 @@
         <v>95</v>
       </c>
       <c r="K56">
-        <v>0.06375838926174497</v>
+        <v>0.05828220858895705</v>
       </c>
       <c r="L56">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="M56">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>837</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2948,13 +2945,13 @@
         <v>96</v>
       </c>
       <c r="K57">
-        <v>0.05882352941176471</v>
+        <v>0.05327413984461709</v>
       </c>
       <c r="L57">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M57">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2966,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>848</v>
+        <v>853</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2974,25 +2971,25 @@
         <v>97</v>
       </c>
       <c r="K58">
-        <v>0.05198776758409786</v>
+        <v>0.03697996918335902</v>
       </c>
       <c r="L58">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M58">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>310</v>
+        <v>625</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -3000,25 +2997,25 @@
         <v>98</v>
       </c>
       <c r="K59">
-        <v>0.03697996918335902</v>
+        <v>0.03596450256889304</v>
       </c>
       <c r="L59">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="M59">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="N59">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O59">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>625</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -3026,25 +3023,25 @@
         <v>99</v>
       </c>
       <c r="K60">
-        <v>0.03344867358708189</v>
+        <v>0.03002309468822171</v>
       </c>
       <c r="L60">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M60">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -3052,13 +3049,13 @@
         <v>100</v>
       </c>
       <c r="K61">
-        <v>0.03322414599906411</v>
+        <v>0.02128345694937117</v>
       </c>
       <c r="L61">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M61">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N61">
         <v>0.92</v>
@@ -3070,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>2066</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -3078,25 +3075,25 @@
         <v>101</v>
       </c>
       <c r="K62">
-        <v>0.01645692158760891</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="L62">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="M62">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="N62">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="O62">
-        <v>0.14</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>3048</v>
+        <v>948</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -3104,51 +3101,25 @@
         <v>102</v>
       </c>
       <c r="K63">
-        <v>0.01556016597510373</v>
+        <v>0.009073842302878598</v>
       </c>
       <c r="L63">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M63">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N63">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
       <c r="O63">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="64" spans="10:17">
-      <c r="J64" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K64">
-        <v>0.006890072032571249</v>
-      </c>
-      <c r="L64">
-        <v>22</v>
-      </c>
-      <c r="M64">
-        <v>30</v>
-      </c>
-      <c r="N64">
-        <v>0.73</v>
-      </c>
-      <c r="O64">
-        <v>0.27</v>
-      </c>
-      <c r="P64" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q64">
-        <v>3171</v>
+        <v>3167</v>
       </c>
     </row>
   </sheetData>
